--- a/datos/LISTADO PERSONAL OPERATIVO Y PUESTOS.xlsx
+++ b/datos/LISTADO PERSONAL OPERATIVO Y PUESTOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CE2000\Documents\softwareFactory\cepointWEB\CEpoint\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A31F3F-EDAE-40EC-A8DD-4FF75B610116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7526D09E-4EF9-4524-9DED-E3CA9CF49650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{248C9DAE-A2A1-4528-A683-EB45DEA4332F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{248C9DAE-A2A1-4528-A683-EB45DEA4332F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -680,9 +680,6 @@
     <t>GabGal-35</t>
   </si>
   <si>
-    <t xml:space="preserve"> yahireliasavalosperez@cepoint.com</t>
-  </si>
-  <si>
     <t>YahAva-36</t>
   </si>
   <si>
@@ -710,9 +707,6 @@
     <t>JuaAlc-38</t>
   </si>
   <si>
-    <t>yesicanatalymascarenonieves@cepoint.com</t>
-  </si>
-  <si>
     <t>YesMas-39</t>
   </si>
   <si>
@@ -773,18 +767,12 @@
     <t>hugodejesusosorio@cepoint.com</t>
   </si>
   <si>
-    <t>dianamendezruiz@cepoint.com</t>
-  </si>
-  <si>
     <t>IssFal-46</t>
   </si>
   <si>
     <t xml:space="preserve">DavChi- 47 </t>
   </si>
   <si>
-    <t xml:space="preserve">joseramonlopezvazquez@cepoint.com </t>
-  </si>
-  <si>
     <t>JosLop-48</t>
   </si>
   <si>
@@ -800,12 +788,6 @@
     <t>juancarlosflorida@cepoint.com</t>
   </si>
   <si>
-    <t>yonathangerardomeza@cepoint.com</t>
-  </si>
-  <si>
-    <t>scarlethvaleriaanaya@cepoint.com</t>
-  </si>
-  <si>
     <t>juancarlosgonzalez@cepoint.com</t>
   </si>
   <si>
@@ -818,9 +800,6 @@
     <t>JuaGon-50</t>
   </si>
   <si>
-    <t>rubenmorenosanchez@cepoint.com</t>
-  </si>
-  <si>
     <t>mariosanchezmartinez@cepoint.com</t>
   </si>
   <si>
@@ -851,9 +830,6 @@
     <t>DianMen-59</t>
   </si>
   <si>
-    <t>joserafaelnuneznavarro@cepoint.com</t>
-  </si>
-  <si>
     <t>JosNun-60</t>
   </si>
   <si>
@@ -866,9 +842,6 @@
     <t>MarSan-63</t>
   </si>
   <si>
-    <t>josuedanielmartinezmontez@cepoint.com</t>
-  </si>
-  <si>
     <t>JosMar-64</t>
   </si>
   <si>
@@ -1026,6 +999,33 @@
   </si>
   <si>
     <t>ReyGga-84</t>
+  </si>
+  <si>
+    <t>yahiravalos@cepoint.com</t>
+  </si>
+  <si>
+    <t>yesicamascareno@cepoint.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joseramonlopez@cepoint.com </t>
+  </si>
+  <si>
+    <t>dianamendez@cepoint.com</t>
+  </si>
+  <si>
+    <t>joserafaelnunez@cepoint.com</t>
+  </si>
+  <si>
+    <t>rubenmoreno@cepoint.com</t>
+  </si>
+  <si>
+    <t>josuedanielmartinez@cepoint.com</t>
+  </si>
+  <si>
+    <t>yonathanmeza@cepoint.com</t>
+  </si>
+  <si>
+    <t>scarlethanaya@cepoint.com</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,13 +1210,7 @@
     <xf numFmtId="14" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1541,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90E969E-5547-4DBA-A13A-5C23A9F3FB75}">
-  <dimension ref="B1:G115"/>
+  <dimension ref="B1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1560,7 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="16"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G3" s="12"/>
@@ -1602,7 +1596,7 @@
       <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>147</v>
       </c>
       <c r="E6" t="s">
@@ -1617,7 +1611,7 @@
       <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>149</v>
       </c>
       <c r="E7" t="s">
@@ -1641,7 +1635,7 @@
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>151</v>
       </c>
       <c r="E10" t="s">
@@ -1655,7 +1649,7 @@
       <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>152</v>
       </c>
       <c r="E11" t="s">
@@ -1669,7 +1663,7 @@
       <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>153</v>
       </c>
       <c r="E12" t="s">
@@ -1683,7 +1677,7 @@
       <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>154</v>
       </c>
       <c r="E13" t="s">
@@ -1697,7 +1691,7 @@
       <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>160</v>
       </c>
       <c r="E14" t="s">
@@ -1711,7 +1705,7 @@
       <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>162</v>
       </c>
       <c r="E15" t="s">
@@ -1725,7 +1719,7 @@
       <c r="C16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>165</v>
       </c>
       <c r="E16" t="s">
@@ -1739,7 +1733,7 @@
       <c r="C17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>164</v>
       </c>
       <c r="E17" t="s">
@@ -1753,7 +1747,7 @@
       <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>155</v>
       </c>
       <c r="E18" t="s">
@@ -1776,7 +1770,7 @@
       <c r="C21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>169</v>
       </c>
       <c r="E21" t="s">
@@ -1790,7 +1784,7 @@
       <c r="C22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>171</v>
       </c>
       <c r="E22" t="s">
@@ -1804,7 +1798,7 @@
       <c r="C23" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>173</v>
       </c>
       <c r="E23" t="s">
@@ -1827,7 +1821,7 @@
       <c r="C26" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>175</v>
       </c>
       <c r="E26" t="s">
@@ -1841,7 +1835,7 @@
       <c r="C27" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>176</v>
       </c>
       <c r="E27" t="s">
@@ -1855,7 +1849,7 @@
       <c r="C28" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>177</v>
       </c>
       <c r="E28" t="s">
@@ -1869,7 +1863,7 @@
       <c r="C29" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>184</v>
       </c>
       <c r="E29" t="s">
@@ -1883,7 +1877,7 @@
       <c r="C30" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>186</v>
       </c>
       <c r="E30" t="s">
@@ -1897,7 +1891,7 @@
       <c r="C31" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>178</v>
       </c>
       <c r="E31" t="s">
@@ -1905,16 +1899,16 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="18" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1925,7 +1919,7 @@
       <c r="C33" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>180</v>
       </c>
       <c r="E33" t="s">
@@ -1948,7 +1942,7 @@
       <c r="C36" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>191</v>
       </c>
       <c r="E36" t="s">
@@ -1962,7 +1956,7 @@
       <c r="C37" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>192</v>
       </c>
       <c r="E37" t="s">
@@ -1976,7 +1970,7 @@
       <c r="C38" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>193</v>
       </c>
       <c r="E38" t="s">
@@ -1990,7 +1984,7 @@
       <c r="C39" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>194</v>
       </c>
       <c r="E39" t="s">
@@ -2004,7 +1998,7 @@
       <c r="C40" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>195</v>
       </c>
       <c r="E40" t="s">
@@ -2018,7 +2012,7 @@
       <c r="C41" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="13" t="s">
         <v>196</v>
       </c>
       <c r="E41" t="s">
@@ -2032,7 +2026,7 @@
       <c r="C42" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>199</v>
       </c>
       <c r="E42" t="s">
@@ -2046,7 +2040,7 @@
       <c r="C43" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>200</v>
       </c>
       <c r="E43" t="s">
@@ -2060,7 +2054,7 @@
       <c r="C44" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>208</v>
       </c>
       <c r="E44" t="s">
@@ -2074,7 +2068,7 @@
       <c r="C45" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="13" t="s">
         <v>210</v>
       </c>
       <c r="E45" t="s">
@@ -2088,7 +2082,7 @@
       <c r="C46" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="13" t="s">
         <v>201</v>
       </c>
       <c r="E46" t="s">
@@ -2102,7 +2096,7 @@
       <c r="C47" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="13" t="s">
         <v>213</v>
       </c>
       <c r="E47" t="s">
@@ -2116,11 +2110,11 @@
       <c r="C48" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2130,11 +2124,11 @@
       <c r="C49" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>217</v>
+      <c r="D49" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="E49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2144,11 +2138,11 @@
       <c r="C50" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>218</v>
+      <c r="D50" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="E50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2158,11 +2152,11 @@
       <c r="C51" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>225</v>
+      <c r="D51" s="13" t="s">
+        <v>323</v>
       </c>
       <c r="E51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2172,11 +2166,11 @@
       <c r="C52" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="14" t="s">
-        <v>219</v>
+      <c r="D52" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="E52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2186,11 +2180,11 @@
       <c r="C53" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>220</v>
+      <c r="D53" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="E53" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2200,11 +2194,11 @@
       <c r="C54" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="14" t="s">
-        <v>221</v>
+      <c r="D54" s="13" t="s">
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2214,11 +2208,11 @@
       <c r="C55" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="14" t="s">
-        <v>222</v>
+      <c r="D55" s="13" t="s">
+        <v>221</v>
       </c>
       <c r="E55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2228,11 +2222,11 @@
       <c r="C56" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="14" t="s">
-        <v>231</v>
+      <c r="D56" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="E56" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -2251,11 +2245,11 @@
       <c r="C59" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="14" t="s">
-        <v>233</v>
+      <c r="D59" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="E59" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2265,11 +2259,11 @@
       <c r="C60" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D60" s="14" t="s">
-        <v>238</v>
+      <c r="D60" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="E60" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2279,11 +2273,11 @@
       <c r="C61" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="14" t="s">
-        <v>239</v>
+      <c r="D61" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="E61" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2293,11 +2287,11 @@
       <c r="C62" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D62" s="14" t="s">
-        <v>249</v>
+      <c r="D62" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="E62" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2307,11 +2301,11 @@
       <c r="C63" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D63" s="14" t="s">
-        <v>234</v>
+      <c r="D63" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="E63" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2321,219 +2315,221 @@
       <c r="C64" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="14" t="s">
-        <v>259</v>
+      <c r="D64" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="E64" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="14" t="s">
-        <v>240</v>
+      <c r="D65" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="E65" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="14" t="s">
-        <v>241</v>
+      <c r="D66" s="13" t="s">
+        <v>239</v>
       </c>
       <c r="E66" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="14" t="s">
-        <v>242</v>
+      <c r="D67" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="E67" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="14" t="s">
-        <v>243</v>
+      <c r="D68" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="E68" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D69" s="14" t="s">
-        <v>235</v>
+      <c r="D69" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="E69" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>244</v>
+      <c r="D70" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="E70" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D71" s="14" t="s">
-        <v>236</v>
+      <c r="D71" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="E71" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C72" s="9"/>
-    </row>
-    <row r="73" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D73" s="14" t="s">
-        <v>245</v>
+      <c r="D73" s="13" t="s">
+        <v>243</v>
       </c>
       <c r="E73" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D74" s="14" t="s">
-        <v>246</v>
+      <c r="D74" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D76" s="14" t="s">
-        <v>272</v>
+      <c r="D76" s="13" t="s">
+        <v>326</v>
       </c>
       <c r="E76" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="14" t="s">
-        <v>261</v>
+      <c r="D77" s="13" t="s">
+        <v>327</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="14" t="s">
-        <v>251</v>
+      <c r="D78" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="H78" s="14"/>
+    </row>
+    <row r="79" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="14" t="s">
-        <v>262</v>
+      <c r="D79" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>278</v>
+      <c r="D80" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2549,11 +2545,11 @@
       <c r="C82" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>279</v>
+      <c r="D82" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2563,11 +2559,11 @@
       <c r="C83" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D83" s="14" t="s">
-        <v>253</v>
+      <c r="D83" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2577,11 +2573,11 @@
       <c r="C84" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D84" s="14" t="s">
-        <v>254</v>
+      <c r="D84" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2597,11 +2593,11 @@
       <c r="C86" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D86" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>282</v>
+      <c r="D86" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2617,11 +2613,11 @@
       <c r="C88" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D88" s="14" t="s">
-        <v>256</v>
+      <c r="D88" s="13" t="s">
+        <v>330</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2631,11 +2627,11 @@
       <c r="C89" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D89" s="14" t="s">
-        <v>257</v>
+      <c r="D89" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="E89" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2645,11 +2641,11 @@
       <c r="C90" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D90" s="14" t="s">
-        <v>287</v>
+      <c r="D90" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2659,11 +2655,11 @@
       <c r="C91" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D91" s="14" t="s">
-        <v>283</v>
+      <c r="D91" s="13" t="s">
+        <v>274</v>
       </c>
       <c r="E91" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2679,11 +2675,11 @@
       <c r="C93" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="14" t="s">
-        <v>288</v>
+      <c r="D93" s="13" t="s">
+        <v>279</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2693,11 +2689,11 @@
       <c r="C94" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D94" s="14" t="s">
-        <v>285</v>
+      <c r="D94" s="13" t="s">
+        <v>276</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2707,11 +2703,11 @@
       <c r="C95" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D95" s="14" t="s">
-        <v>294</v>
+      <c r="D95" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2721,11 +2717,11 @@
       <c r="C96" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D96" s="14" t="s">
-        <v>289</v>
+      <c r="D96" s="13" t="s">
+        <v>280</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2735,11 +2731,11 @@
       <c r="C97" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D97" s="14" t="s">
-        <v>297</v>
+      <c r="D97" s="13" t="s">
+        <v>288</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2749,11 +2745,11 @@
       <c r="C98" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D98" s="14" t="s">
-        <v>299</v>
+      <c r="D98" s="13" t="s">
+        <v>290</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2763,11 +2759,11 @@
       <c r="C99" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D99" s="14" t="s">
-        <v>301</v>
+      <c r="D99" s="13" t="s">
+        <v>292</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2777,11 +2773,11 @@
       <c r="C100" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D100" s="14" t="s">
-        <v>303</v>
+      <c r="D100" s="13" t="s">
+        <v>294</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2791,11 +2787,11 @@
       <c r="C101" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D101" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>307</v>
+      <c r="D101" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2803,7 +2799,7 @@
         <v>97</v>
       </c>
       <c r="C102" s="9"/>
-      <c r="E102" s="13"/>
+      <c r="E102" s="9"/>
     </row>
     <row r="103" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="2" t="s">
@@ -2812,11 +2808,11 @@
       <c r="C103" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D103" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>308</v>
+      <c r="D103" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2832,11 +2828,11 @@
       <c r="C105" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D105" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>309</v>
+      <c r="D105" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2846,11 +2842,11 @@
       <c r="C106" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D106" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>321</v>
+      <c r="D106" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2860,11 +2856,11 @@
       <c r="C107" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D107" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>322</v>
+      <c r="D107" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2874,11 +2870,11 @@
       <c r="C108" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D108" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>323</v>
+      <c r="D108" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2888,11 +2884,11 @@
       <c r="C109" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D109" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E109" s="13" t="s">
-        <v>324</v>
+      <c r="D109" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2902,11 +2898,11 @@
       <c r="C110" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D110" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>325</v>
+      <c r="D110" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2916,11 +2912,11 @@
       <c r="C111" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D111" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>326</v>
+      <c r="D111" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2930,11 +2926,11 @@
       <c r="C112" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D112" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>327</v>
+      <c r="D112" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2944,11 +2940,11 @@
       <c r="C113" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D113" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>328</v>
+      <c r="D113" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2958,11 +2954,11 @@
       <c r="C114" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D114" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="E114" s="13" t="s">
-        <v>329</v>
+      <c r="D114" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2972,11 +2968,11 @@
       <c r="C115" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D115" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>330</v>
+      <c r="D115" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3073,8 +3069,9 @@
     <hyperlink ref="D113" r:id="rId89" xr:uid="{2EF4E4E4-3618-4399-BDBA-DB760D879CD0}"/>
     <hyperlink ref="D114" r:id="rId90" xr:uid="{1B225D32-117A-4252-A25F-EB718BB89C94}"/>
     <hyperlink ref="D115" r:id="rId91" xr:uid="{C3C97B00-BFDF-48AA-BFB5-528CFBA3DA88}"/>
+    <hyperlink ref="D48" r:id="rId92" xr:uid="{301C5CD8-CFAB-406C-A7A3-B7484B77A9BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId92"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId93"/>
 </worksheet>
 </file>
--- a/datos/LISTADO PERSONAL OPERATIVO Y PUESTOS.xlsx
+++ b/datos/LISTADO PERSONAL OPERATIVO Y PUESTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CE2000\Documents\softwareFactory\cepointWEB\CEpoint\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7526D09E-4EF9-4524-9DED-E3CA9CF49650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324D0A87-F565-429C-8AFA-D89ECFD4DC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{248C9DAE-A2A1-4528-A683-EB45DEA4332F}"/>
   </bookViews>
@@ -494,15 +494,6 @@
     <t>gabriellopeznarciso@cepoint.com</t>
   </si>
   <si>
-    <t>miguelangelcastillodominguez@cepoint.com</t>
-  </si>
-  <si>
-    <t>carlosruizmendoza@cepoint.com</t>
-  </si>
-  <si>
-    <t>fernandoruizhernandez@cepoint.com</t>
-  </si>
-  <si>
     <t>DavAlb-4</t>
   </si>
   <si>
@@ -515,24 +506,12 @@
     <t>CarRui-7</t>
   </si>
   <si>
-    <t>andreperezdimas@cepoint.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">AndPer-8 </t>
   </si>
   <si>
-    <t>samuelleyvamunoz@cepoint.com</t>
-  </si>
-  <si>
     <t>SamLey-9</t>
   </si>
   <si>
-    <t>francescaabigailrojas@cepoint.com</t>
-  </si>
-  <si>
-    <t>brandonperezbastidias@cepoint.com</t>
-  </si>
-  <si>
     <t>BraPer-10</t>
   </si>
   <si>
@@ -542,42 +521,18 @@
     <t>FerRui-12</t>
   </si>
   <si>
-    <t>oscarfernandoalcantara@cepoint.com</t>
-  </si>
-  <si>
     <t>OscFer-13</t>
   </si>
   <si>
-    <t>santiagoolivareshernandez@cepoint.com</t>
-  </si>
-  <si>
     <t>SanOli-14</t>
   </si>
   <si>
-    <t>mitzyceciliamendezrivera@cepoint.com</t>
-  </si>
-  <si>
     <t>MitCec-15</t>
   </si>
   <si>
-    <t>rubenlarasolis@cepoint.com</t>
-  </si>
-  <si>
     <t>santiagoruizflores@cepoint.com</t>
   </si>
   <si>
-    <t>ferminvegacervantes@cepoint.com</t>
-  </si>
-  <si>
-    <t>felipegarciaflores@cepoint.com</t>
-  </si>
-  <si>
-    <t>jonathangabrieltorresdelacruz@cepoint.com</t>
-  </si>
-  <si>
-    <t>hectormartinezmartinez@cepoint.com</t>
-  </si>
-  <si>
     <t>RubLar-16</t>
   </si>
   <si>
@@ -587,15 +542,9 @@
     <t>FerVega-18</t>
   </si>
   <si>
-    <t>guillermofernandosanchez@cepoint.com</t>
-  </si>
-  <si>
     <t>GuiFer-19</t>
   </si>
   <si>
-    <t>josueluisbautistaperez@cepoint.com</t>
-  </si>
-  <si>
     <t>JosBau-20</t>
   </si>
   <si>
@@ -608,39 +557,12 @@
     <t>HecMar-23</t>
   </si>
   <si>
-    <t>jhonyortegaantonio@cepoint.com</t>
-  </si>
-  <si>
-    <t>eduardobecerragarcia@cepoint.com</t>
-  </si>
-  <si>
-    <t>jesusluisdominguezhernandez@cepoint.com</t>
-  </si>
-  <si>
-    <t>jorgemanuellegorretaedadis@cepoint.com</t>
-  </si>
-  <si>
-    <t>alanarrevillagaramirez@cepoint.com</t>
-  </si>
-  <si>
-    <t>valerioherrerahernandez@cepoint.com</t>
-  </si>
-  <si>
     <t>jhoort-24</t>
   </si>
   <si>
     <t>EduBec-25</t>
   </si>
   <si>
-    <t>brauliomanuellopezgutierrez@cepoint.com</t>
-  </si>
-  <si>
-    <t>robertofelixvargas@cepoint.com</t>
-  </si>
-  <si>
-    <t>arturoramosdiaz@cepoint.com</t>
-  </si>
-  <si>
     <t>JesDom-26</t>
   </si>
   <si>
@@ -659,48 +581,21 @@
     <t>RobFel-31</t>
   </si>
   <si>
-    <t>trinidadcobosbernal@cepoint.com</t>
-  </si>
-  <si>
     <t>TriCob-32</t>
   </si>
   <si>
-    <t>aldoemmaneuelalvarezcruz@cepoint.com</t>
-  </si>
-  <si>
     <t>AldAlv-33</t>
   </si>
   <si>
     <t>ArtRam-34</t>
   </si>
   <si>
-    <t>gabrielagallardo@cepoint.com</t>
-  </si>
-  <si>
     <t>GabGal-35</t>
   </si>
   <si>
     <t>YahAva-36</t>
   </si>
   <si>
-    <t>rafaelobilaparicio@cepoint.com</t>
-  </si>
-  <si>
-    <t>juancarlosalcantaraavila@cepoint.com</t>
-  </si>
-  <si>
-    <t>maribelnievesmorales@cepoint.com</t>
-  </si>
-  <si>
-    <t>pedroiglesiaschavarria@cepoint.com</t>
-  </si>
-  <si>
-    <t>yanmichelldominguezibarra@cepoint.com</t>
-  </si>
-  <si>
-    <t>josedavidcolohuarosas@cepoint.com</t>
-  </si>
-  <si>
     <t>RafObi-37</t>
   </si>
   <si>
@@ -722,51 +617,12 @@
     <t>JosCol-43</t>
   </si>
   <si>
-    <t>alejandrojimenezpina@cepoint.com</t>
-  </si>
-  <si>
     <t>AleJim-44</t>
   </si>
   <si>
-    <t>ismaelcolmenero@cepoint.com</t>
-  </si>
-  <si>
-    <t>adolforeyes@cepoint.com</t>
-  </si>
-  <si>
-    <t>federicoflores@cepoint.com</t>
-  </si>
-  <si>
-    <t>alejandroalexisroman@cepoint.com</t>
-  </si>
-  <si>
     <t>IsmCol-45</t>
   </si>
   <si>
-    <t>issacfalcongarcia@cepoint.com</t>
-  </si>
-  <si>
-    <t>davidchimalalanis@cepoint.com</t>
-  </si>
-  <si>
-    <t>abelardovacasanagustin@cepoint.com</t>
-  </si>
-  <si>
-    <t>leonelsandovalpozos@cepoint.com</t>
-  </si>
-  <si>
-    <t>leonardobermudezsoto@cepoint.com</t>
-  </si>
-  <si>
-    <t>raulenriquesolismolina@cepoint.com</t>
-  </si>
-  <si>
-    <t>manuelmezavargas@cepoint.com</t>
-  </si>
-  <si>
-    <t>hugodejesusosorio@cepoint.com</t>
-  </si>
-  <si>
     <t>IssFal-46</t>
   </si>
   <si>
@@ -776,33 +632,12 @@
     <t>JosLop-48</t>
   </si>
   <si>
-    <t>omardanielsarmiento@cepoint.com</t>
-  </si>
-  <si>
-    <t>marioalbertorodriguez@cepoint.com</t>
-  </si>
-  <si>
-    <t>hectorgerardoortega@cepoint.com</t>
-  </si>
-  <si>
-    <t>juancarlosflorida@cepoint.com</t>
-  </si>
-  <si>
-    <t>juancarlosgonzalez@cepoint.com</t>
-  </si>
-  <si>
     <t>AdoRey-49</t>
   </si>
   <si>
-    <t>juanmanuelgonzalez@cepoint.com</t>
-  </si>
-  <si>
     <t>JuaGon-50</t>
   </si>
   <si>
-    <t>mariosanchezmartinez@cepoint.com</t>
-  </si>
-  <si>
     <t>AbeVac-51</t>
   </si>
   <si>
@@ -857,27 +692,12 @@
     <t xml:space="preserve">YonMez-68 </t>
   </si>
   <si>
-    <t>juliocesarhernandez@cepoint.com</t>
-  </si>
-  <si>
     <t>ScaAna-69</t>
   </si>
   <si>
-    <t>severianosanchez@cepoint.com</t>
-  </si>
-  <si>
     <t>JuaGon-70</t>
   </si>
   <si>
-    <t>adriancastillorivero@cepoint.com</t>
-  </si>
-  <si>
-    <t>hectoraburtoflores@cepoint.com</t>
-  </si>
-  <si>
-    <t>ferminantoniosanchez@cepoint.com</t>
-  </si>
-  <si>
     <t>AdrCas-71</t>
   </si>
   <si>
@@ -890,45 +710,24 @@
     <t>SevSan-74</t>
   </si>
   <si>
-    <t>javierdejesus@cepoint.com</t>
-  </si>
-  <si>
     <t>JavJes-75</t>
   </si>
   <si>
     <t>FerSan-76</t>
   </si>
   <si>
-    <t>carlosdanielcastromedina@cepoint.com</t>
-  </si>
-  <si>
     <t>CarCas-77</t>
   </si>
   <si>
-    <t>juancarloscastaneda@cepoint.com</t>
-  </si>
-  <si>
     <t>JuaCas-78</t>
   </si>
   <si>
-    <t xml:space="preserve">carlosernestosalinas@cepoint.com </t>
-  </si>
-  <si>
     <t>CarErn-79</t>
   </si>
   <si>
-    <t>jesusrodolfozuniga@cepoint.com</t>
-  </si>
-  <si>
     <t>JesRod-80</t>
   </si>
   <si>
-    <t>tomascruzperez@cepoint.com</t>
-  </si>
-  <si>
-    <t>guillermofloresramos@cepoint.com</t>
-  </si>
-  <si>
     <t>TomCru-81</t>
   </si>
   <si>
@@ -938,39 +737,9 @@
     <t>LuiCer-83</t>
   </si>
   <si>
-    <t>luisenriquecerrano@cepoint.com</t>
-  </si>
-  <si>
-    <t>renebarreras@cepoint.com</t>
-  </si>
-  <si>
-    <t>josejuanneri@cepoint.com</t>
-  </si>
-  <si>
-    <t>rigobertorosas@cepoint.com</t>
-  </si>
-  <si>
-    <t>stephanieariadnaortiz@cepoint.com</t>
-  </si>
-  <si>
-    <t>marisolchimal@cepoint.com</t>
-  </si>
-  <si>
-    <t>eduardoramirez@cepoint.com</t>
-  </si>
-  <si>
-    <t>alejandroulisesgomez@cepoint.com</t>
-  </si>
-  <si>
     <t>ismaelmoreno@cepoint.com</t>
   </si>
   <si>
-    <t>mariogarcia@cepoint.com</t>
-  </si>
-  <si>
-    <t>reyesgarcia@cepoint.com</t>
-  </si>
-  <si>
     <t>RenBar-84</t>
   </si>
   <si>
@@ -1001,31 +770,262 @@
     <t>ReyGga-84</t>
   </si>
   <si>
-    <t>yahiravalos@cepoint.com</t>
-  </si>
-  <si>
-    <t>yesicamascareno@cepoint.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joseramonlopez@cepoint.com </t>
-  </si>
-  <si>
-    <t>dianamendez@cepoint.com</t>
-  </si>
-  <si>
-    <t>joserafaelnunez@cepoint.com</t>
-  </si>
-  <si>
-    <t>rubenmoreno@cepoint.com</t>
-  </si>
-  <si>
-    <t>josuedanielmartinez@cepoint.com</t>
-  </si>
-  <si>
-    <t>yonathanmeza@cepoint.com</t>
-  </si>
-  <si>
-    <t>scarlethanaya@cepoint.com</t>
+    <t>miguelcastillo@cepoint.com</t>
+  </si>
+  <si>
+    <t>andreperezd@cepoint.com</t>
+  </si>
+  <si>
+    <t>samuelleyva@cepoint.com</t>
+  </si>
+  <si>
+    <t>brandonperezb@cepoint.com</t>
+  </si>
+  <si>
+    <t>francescaabigailr@cepoint.com</t>
+  </si>
+  <si>
+    <t>fernandoruizh@cepoint.com</t>
+  </si>
+  <si>
+    <t>oscarfernandoa@cepoint.com</t>
+  </si>
+  <si>
+    <t>santiagoolivares@cepoint.com</t>
+  </si>
+  <si>
+    <t>mitzyceciliamendezr@cepoint.com</t>
+  </si>
+  <si>
+    <t>rubenlaras@cepoint.com</t>
+  </si>
+  <si>
+    <t>ferminvegac@cepoint.com</t>
+  </si>
+  <si>
+    <t>guillermofernandos@cepoint.com</t>
+  </si>
+  <si>
+    <t>josueluisbautistap@cepoint.com</t>
+  </si>
+  <si>
+    <t>felipegarciaf@cepoint.com</t>
+  </si>
+  <si>
+    <t>hectormartinezm@cepoint.com</t>
+  </si>
+  <si>
+    <t>jhonyortega@cepoint.com</t>
+  </si>
+  <si>
+    <t>eduardobecerra@cepoint.com</t>
+  </si>
+  <si>
+    <t>jesusluisdominguez@cepoint.com</t>
+  </si>
+  <si>
+    <t>jorgemanuellegorreta@cepoint.com</t>
+  </si>
+  <si>
+    <t>alanarrevillaga@cepoint.com</t>
+  </si>
+  <si>
+    <t>valerioherrerah@cepoint.com</t>
+  </si>
+  <si>
+    <t>brauliomanuellopez@cepoint.com</t>
+  </si>
+  <si>
+    <t>robertofelix@cepoint.com</t>
+  </si>
+  <si>
+    <t>trinidadcobos@cepoint.com</t>
+  </si>
+  <si>
+    <t>aldoemalvarez@cepoint.com</t>
+  </si>
+  <si>
+    <t>arturoramosd@cepoint.com</t>
+  </si>
+  <si>
+    <t>gabrielagall@cepoint.com</t>
+  </si>
+  <si>
+    <t>yahirava@cepoint.com</t>
+  </si>
+  <si>
+    <t>rafaelobil@cepoint.com</t>
+  </si>
+  <si>
+    <t>juanalcantara@cepoint.com</t>
+  </si>
+  <si>
+    <t>yesicamasc@cepoint.com</t>
+  </si>
+  <si>
+    <t>maribelnievesm@cepoint.com</t>
+  </si>
+  <si>
+    <t>pedroiglesias@cepoint.com</t>
+  </si>
+  <si>
+    <t>yanmichelldominguez@cepoint.com</t>
+  </si>
+  <si>
+    <t>josedavidcolohua@cepoint.com</t>
+  </si>
+  <si>
+    <t>alejandrojimenez@cepoint.com</t>
+  </si>
+  <si>
+    <t>ismaelcolm@cepoint.com</t>
+  </si>
+  <si>
+    <t>issacfalcong@cepoint.com</t>
+  </si>
+  <si>
+    <t>davidchimal@cepoint.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joseramonl@cepoint.com </t>
+  </si>
+  <si>
+    <t>adolforeye@cepoint.com</t>
+  </si>
+  <si>
+    <t>juangonz@cepoint.com</t>
+  </si>
+  <si>
+    <t>abelardovaca@cepoint.com</t>
+  </si>
+  <si>
+    <t>leonelsandoval@cepoint.com</t>
+  </si>
+  <si>
+    <t>leonardobermudez@cepoint.com</t>
+  </si>
+  <si>
+    <t>raulenriquesolis@cepoint.com</t>
+  </si>
+  <si>
+    <t>federicoflo@cepoint.com</t>
+  </si>
+  <si>
+    <t>manuelmeza@cepoint.com</t>
+  </si>
+  <si>
+    <t>alejandroalexis@cepoint.com</t>
+  </si>
+  <si>
+    <t>hugoosorio@cepoint.com</t>
+  </si>
+  <si>
+    <t>dianamen@cepoint.com</t>
+  </si>
+  <si>
+    <t>josenunez@cepoint.com</t>
+  </si>
+  <si>
+    <t>rubenmor@cepoint.com</t>
+  </si>
+  <si>
+    <t>danielsarmiento@cepoint.com</t>
+  </si>
+  <si>
+    <t>mariosanchez@cepoint.com</t>
+  </si>
+  <si>
+    <t>josuemartinez@cepoint.com</t>
+  </si>
+  <si>
+    <t>mariorodriguez@cepoint.com</t>
+  </si>
+  <si>
+    <t>hectorortega@cepoint.com</t>
+  </si>
+  <si>
+    <t>juanflorida@cepoint.com</t>
+  </si>
+  <si>
+    <t>yonathanmez@cepoint.com</t>
+  </si>
+  <si>
+    <t>juangonzalez@cepoint.com</t>
+  </si>
+  <si>
+    <t>scarlethanay@cepoint.com</t>
+  </si>
+  <si>
+    <t>adriancasriv@cepoint.com</t>
+  </si>
+  <si>
+    <t>juliohernandez@cepoint.com</t>
+  </si>
+  <si>
+    <t>hectoraburto@cepoint.com</t>
+  </si>
+  <si>
+    <t>severianosanc@cepoint.com</t>
+  </si>
+  <si>
+    <t>javierdjesus@cepoint.com</t>
+  </si>
+  <si>
+    <t>ferminsanchez@cepoint.com</t>
+  </si>
+  <si>
+    <t>carlosdanielcastro@cepoint.com</t>
+  </si>
+  <si>
+    <t>juancastaneda@cepoint.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carlossalinas@cepoint.com </t>
+  </si>
+  <si>
+    <t>jesuszuniga@cepoint.com</t>
+  </si>
+  <si>
+    <t>tomascruz@cepoint.com</t>
+  </si>
+  <si>
+    <t>guillermoflores@cepoint.com</t>
+  </si>
+  <si>
+    <t>luiscerrano@cepoint.com</t>
+  </si>
+  <si>
+    <t>renebarr@cepoint.com</t>
+  </si>
+  <si>
+    <t>joseneri@cepoint.com</t>
+  </si>
+  <si>
+    <t>rigobertoros@cepoint.com</t>
+  </si>
+  <si>
+    <t>stephanieortiz@cepoint.com</t>
+  </si>
+  <si>
+    <t>marisolchim@cepoint.com</t>
+  </si>
+  <si>
+    <t>eduardoram@cepoint.com</t>
+  </si>
+  <si>
+    <t>alejandrogomez@cepoint.com</t>
+  </si>
+  <si>
+    <t>mariogarc@cepoint.com</t>
+  </si>
+  <si>
+    <t>reyesgarc@cepoint.com</t>
+  </si>
+  <si>
+    <t>jonathantorres@cepoint.com</t>
+  </si>
+  <si>
+    <t>carlosruizm@cepoint.com</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1090,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1145,6 +1145,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1174,7 +1180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,6 +1226,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1537,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90E969E-5547-4DBA-A13A-5C23A9F3FB75}">
   <dimension ref="B1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,6 +1594,7 @@
       <c r="E5" t="s">
         <v>146</v>
       </c>
+      <c r="F5" s="19"/>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1602,6 +1610,7 @@
       <c r="E6" t="s">
         <v>148</v>
       </c>
+      <c r="F6" s="19"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1639,7 +1648,7 @@
         <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1653,7 +1662,7 @@
         <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1664,10 +1673,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>153</v>
+        <v>245</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1678,10 +1687,10 @@
         <v>19</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>154</v>
+        <v>330</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1692,10 +1701,10 @@
         <v>19</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1706,10 +1715,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1720,10 +1729,10 @@
         <v>19</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1734,10 +1743,10 @@
         <v>19</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1748,10 +1757,10 @@
         <v>19</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -1771,10 +1780,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1785,10 +1794,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c r="E22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1799,10 +1808,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -1822,10 +1831,10 @@
         <v>111</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="E26" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1836,10 +1845,10 @@
         <v>112</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1850,10 +1859,10 @@
         <v>113</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1864,10 +1873,10 @@
         <v>111</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="E29" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1878,10 +1887,10 @@
         <v>134</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1892,10 +1901,10 @@
         <v>111</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="E31" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1906,10 +1915,10 @@
         <v>112</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>179</v>
+        <v>329</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1920,10 +1929,10 @@
         <v>111</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -1943,10 +1952,10 @@
         <v>114</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="E36" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1957,10 +1966,10 @@
         <v>114</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1971,10 +1980,10 @@
         <v>114</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="E38" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1985,10 +1994,10 @@
         <v>114</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="E39" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1999,10 +2008,10 @@
         <v>114</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2013,10 +2022,10 @@
         <v>114</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2027,10 +2036,10 @@
         <v>114</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2041,10 +2050,10 @@
         <v>115</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2055,10 +2064,10 @@
         <v>115</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2069,10 +2078,10 @@
         <v>114</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="E45" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2083,10 +2092,10 @@
         <v>114</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="E46" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2097,10 +2106,10 @@
         <v>135</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="E47" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2111,10 +2120,10 @@
         <v>135</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2125,10 +2134,10 @@
         <v>114</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2139,10 +2148,10 @@
         <v>135</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2153,10 +2162,10 @@
         <v>135</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="E51" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2167,10 +2176,10 @@
         <v>135</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="E52" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2181,10 +2190,10 @@
         <v>114</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="E53" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2195,10 +2204,10 @@
         <v>135</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="E54" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2209,10 +2218,10 @@
         <v>114</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2223,10 +2232,10 @@
         <v>114</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="E56" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -2246,10 +2255,10 @@
         <v>111</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="E59" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2260,10 +2269,10 @@
         <v>111</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="E60" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2274,10 +2283,10 @@
         <v>111</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="E61" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2288,10 +2297,10 @@
         <v>111</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="E62" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2302,10 +2311,10 @@
         <v>111</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="E63" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2316,10 +2325,10 @@
         <v>111</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="E64" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2330,10 +2339,10 @@
         <v>111</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="E65" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2344,10 +2353,10 @@
         <v>136</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="E66" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2358,10 +2367,10 @@
         <v>136</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="E67" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2372,10 +2381,10 @@
         <v>137</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="E68" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2386,10 +2395,10 @@
         <v>111</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="E69" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2400,10 +2409,10 @@
         <v>136</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="E70" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2414,10 +2423,10 @@
         <v>138</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="E71" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2435,10 +2444,10 @@
         <v>116</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="E73" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2449,10 +2458,10 @@
         <v>117</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2469,10 +2478,10 @@
         <v>118</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="E76" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2483,10 +2492,10 @@
         <v>119</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2497,10 +2506,10 @@
         <v>120</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="H78" s="14"/>
     </row>
@@ -2512,10 +2521,10 @@
         <v>121</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2526,10 +2535,10 @@
         <v>121</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2546,10 +2555,10 @@
         <v>122</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2560,10 +2569,10 @@
         <v>123</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2574,10 +2583,10 @@
         <v>124</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2594,10 +2603,10 @@
         <v>125</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2614,10 +2623,10 @@
         <v>126</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2628,10 +2637,10 @@
         <v>114</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="E89" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2642,10 +2651,10 @@
         <v>127</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2656,10 +2665,10 @@
         <v>19</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="E91" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2676,10 +2685,10 @@
         <v>128</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2690,10 +2699,10 @@
         <v>129</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2704,10 +2713,10 @@
         <v>129</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2718,10 +2727,10 @@
         <v>129</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2732,10 +2741,10 @@
         <v>130</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2746,10 +2755,10 @@
         <v>130</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>291</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2760,10 +2769,10 @@
         <v>131</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2774,10 +2783,10 @@
         <v>132</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>295</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2788,10 +2797,10 @@
         <v>128</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2809,10 +2818,10 @@
         <v>133</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2829,10 +2838,10 @@
         <v>21</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2843,10 +2852,10 @@
         <v>114</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>312</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2857,10 +2866,10 @@
         <v>136</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>313</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2871,10 +2880,10 @@
         <v>111</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2885,10 +2894,10 @@
         <v>139</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>315</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2899,10 +2908,10 @@
         <v>140</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2913,10 +2922,10 @@
         <v>129</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2927,10 +2936,10 @@
         <v>140</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>318</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2941,10 +2950,10 @@
         <v>131</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>319</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2955,10 +2964,10 @@
         <v>141</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2969,10 +2978,10 @@
         <v>114</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>321</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3044,32 +3053,32 @@
     <hyperlink ref="D83" r:id="rId64" xr:uid="{ECE4B3CC-9172-42EB-9EDD-AE97794B7A50}"/>
     <hyperlink ref="D84" r:id="rId65" xr:uid="{A35091FD-8B12-4243-84F6-9A71D8F5A479}"/>
     <hyperlink ref="D86" r:id="rId66" xr:uid="{B73DF711-FD79-49A9-A857-FBCCC0A91A7A}"/>
-    <hyperlink ref="D88" r:id="rId67" xr:uid="{9D7D6314-8251-4042-90C1-A0D7B976B80D}"/>
-    <hyperlink ref="D89" r:id="rId68" xr:uid="{07B53E07-FDD1-40DA-A085-B418CB25B9DC}"/>
-    <hyperlink ref="D90" r:id="rId69" xr:uid="{298E1425-C592-48C9-BD99-C885D455E0E6}"/>
-    <hyperlink ref="D91" r:id="rId70" xr:uid="{5E0B7082-FBBF-49EC-B778-37D995CFFE47}"/>
-    <hyperlink ref="D93" r:id="rId71" xr:uid="{5A9179E3-93E2-4DA8-A757-B1C83830C9CD}"/>
-    <hyperlink ref="D94" r:id="rId72" xr:uid="{D011FC57-3153-4542-9197-B0D32B2A8CE5}"/>
-    <hyperlink ref="D95" r:id="rId73" xr:uid="{3516EC49-2630-4E1C-96C4-4521F0159588}"/>
-    <hyperlink ref="D96" r:id="rId74" xr:uid="{9E3ACF8A-F15C-4810-9F08-0E270845A8BB}"/>
-    <hyperlink ref="D97" r:id="rId75" xr:uid="{9E8EA8CB-A387-44FA-93BA-C0DCE7DA42C7}"/>
-    <hyperlink ref="D98" r:id="rId76" xr:uid="{03725DF1-F9C2-439F-9FBE-6FBE0F556A54}"/>
-    <hyperlink ref="D99" r:id="rId77" xr:uid="{E9DC61C6-322D-4756-9B4C-F2AF076F103D}"/>
-    <hyperlink ref="D100" r:id="rId78" xr:uid="{2B77169E-0D11-448F-A4A1-3470BFCA678F}"/>
-    <hyperlink ref="D101" r:id="rId79" xr:uid="{DF4B110B-37A4-4558-8180-C4157BE330E6}"/>
-    <hyperlink ref="D103" r:id="rId80" xr:uid="{9769C84E-F804-4D41-BBFB-0101DD932BE6}"/>
-    <hyperlink ref="D105" r:id="rId81" xr:uid="{BD054AE3-D021-499B-A03D-053E4B91E010}"/>
-    <hyperlink ref="D106" r:id="rId82" xr:uid="{A6B86D30-16BE-49F7-9B85-03289D3470E1}"/>
-    <hyperlink ref="D107" r:id="rId83" xr:uid="{6D903342-43A8-4B8A-AB64-554A870434F2}"/>
-    <hyperlink ref="D108" r:id="rId84" xr:uid="{4167B684-D8FB-424E-83B7-C124E741892B}"/>
-    <hyperlink ref="D109" r:id="rId85" xr:uid="{686EBC73-FE44-428E-BCF1-B8E06D13B37A}"/>
-    <hyperlink ref="D110" r:id="rId86" xr:uid="{844BE014-0096-42CB-9CE4-C4FB644A36CA}"/>
-    <hyperlink ref="D111" r:id="rId87" xr:uid="{2B179F94-D60D-492A-B994-AF997000F7FD}"/>
-    <hyperlink ref="D112" r:id="rId88" xr:uid="{9FC9C423-4740-4676-9177-A728E8C0BFBB}"/>
-    <hyperlink ref="D113" r:id="rId89" xr:uid="{2EF4E4E4-3618-4399-BDBA-DB760D879CD0}"/>
-    <hyperlink ref="D114" r:id="rId90" xr:uid="{1B225D32-117A-4252-A25F-EB718BB89C94}"/>
-    <hyperlink ref="D115" r:id="rId91" xr:uid="{C3C97B00-BFDF-48AA-BFB5-528CFBA3DA88}"/>
-    <hyperlink ref="D48" r:id="rId92" xr:uid="{301C5CD8-CFAB-406C-A7A3-B7484B77A9BC}"/>
+    <hyperlink ref="D90" r:id="rId67" xr:uid="{298E1425-C592-48C9-BD99-C885D455E0E6}"/>
+    <hyperlink ref="D91" r:id="rId68" xr:uid="{5E0B7082-FBBF-49EC-B778-37D995CFFE47}"/>
+    <hyperlink ref="D93" r:id="rId69" xr:uid="{5A9179E3-93E2-4DA8-A757-B1C83830C9CD}"/>
+    <hyperlink ref="D94" r:id="rId70" xr:uid="{D011FC57-3153-4542-9197-B0D32B2A8CE5}"/>
+    <hyperlink ref="D95" r:id="rId71" xr:uid="{3516EC49-2630-4E1C-96C4-4521F0159588}"/>
+    <hyperlink ref="D96" r:id="rId72" xr:uid="{9E3ACF8A-F15C-4810-9F08-0E270845A8BB}"/>
+    <hyperlink ref="D97" r:id="rId73" xr:uid="{9E8EA8CB-A387-44FA-93BA-C0DCE7DA42C7}"/>
+    <hyperlink ref="D98" r:id="rId74" xr:uid="{03725DF1-F9C2-439F-9FBE-6FBE0F556A54}"/>
+    <hyperlink ref="D99" r:id="rId75" xr:uid="{E9DC61C6-322D-4756-9B4C-F2AF076F103D}"/>
+    <hyperlink ref="D100" r:id="rId76" xr:uid="{2B77169E-0D11-448F-A4A1-3470BFCA678F}"/>
+    <hyperlink ref="D101" r:id="rId77" xr:uid="{DF4B110B-37A4-4558-8180-C4157BE330E6}"/>
+    <hyperlink ref="D103" r:id="rId78" xr:uid="{9769C84E-F804-4D41-BBFB-0101DD932BE6}"/>
+    <hyperlink ref="D105" r:id="rId79" xr:uid="{BD054AE3-D021-499B-A03D-053E4B91E010}"/>
+    <hyperlink ref="D106" r:id="rId80" xr:uid="{A6B86D30-16BE-49F7-9B85-03289D3470E1}"/>
+    <hyperlink ref="D107" r:id="rId81" xr:uid="{6D903342-43A8-4B8A-AB64-554A870434F2}"/>
+    <hyperlink ref="D108" r:id="rId82" xr:uid="{4167B684-D8FB-424E-83B7-C124E741892B}"/>
+    <hyperlink ref="D109" r:id="rId83" xr:uid="{686EBC73-FE44-428E-BCF1-B8E06D13B37A}"/>
+    <hyperlink ref="D110" r:id="rId84" xr:uid="{844BE014-0096-42CB-9CE4-C4FB644A36CA}"/>
+    <hyperlink ref="D111" r:id="rId85" xr:uid="{2B179F94-D60D-492A-B994-AF997000F7FD}"/>
+    <hyperlink ref="D112" r:id="rId86" xr:uid="{9FC9C423-4740-4676-9177-A728E8C0BFBB}"/>
+    <hyperlink ref="D113" r:id="rId87" xr:uid="{2EF4E4E4-3618-4399-BDBA-DB760D879CD0}"/>
+    <hyperlink ref="D114" r:id="rId88" xr:uid="{1B225D32-117A-4252-A25F-EB718BB89C94}"/>
+    <hyperlink ref="D115" r:id="rId89" xr:uid="{C3C97B00-BFDF-48AA-BFB5-528CFBA3DA88}"/>
+    <hyperlink ref="D48" r:id="rId90" xr:uid="{301C5CD8-CFAB-406C-A7A3-B7484B77A9BC}"/>
+    <hyperlink ref="D88" r:id="rId91" xr:uid="{9D7D6314-8251-4042-90C1-A0D7B976B80D}"/>
+    <hyperlink ref="D89" r:id="rId92" xr:uid="{07B53E07-FDD1-40DA-A085-B418CB25B9DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId93"/>

--- a/datos/LISTADO PERSONAL OPERATIVO Y PUESTOS.xlsx
+++ b/datos/LISTADO PERSONAL OPERATIVO Y PUESTOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CE2000\Documents\softwareFactory\cepointWEB\CEpoint\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lamborghini\Documents\softwareFactory\CE2000\CEpoint-0\CEpoint\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324D0A87-F565-429C-8AFA-D89ECFD4DC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336682D3-F9E6-4B47-87EF-93475D4A24BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{248C9DAE-A2A1-4528-A683-EB45DEA4332F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{248C9DAE-A2A1-4528-A683-EB45DEA4332F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -887,9 +887,6 @@
     <t>davidchimal@cepoint.com</t>
   </si>
   <si>
-    <t xml:space="preserve">joseramonl@cepoint.com </t>
-  </si>
-  <si>
     <t>adolforeye@cepoint.com</t>
   </si>
   <si>
@@ -980,9 +977,6 @@
     <t>juancastaneda@cepoint.com</t>
   </si>
   <si>
-    <t xml:space="preserve">carlossalinas@cepoint.com </t>
-  </si>
-  <si>
     <t>jesuszuniga@cepoint.com</t>
   </si>
   <si>
@@ -1026,6 +1020,12 @@
   </si>
   <si>
     <t>carlosruizm@cepoint.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ramonlopez@cepoint.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">salinascarlos@cepoint.com </t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1090,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1151,6 +1151,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1180,7 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,6 +1233,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1544,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90E969E-5547-4DBA-A13A-5C23A9F3FB75}">
   <dimension ref="B1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B216" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="G245" sqref="G245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1694,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E13" t="s">
         <v>156</v>
@@ -1915,7 +1922,7 @@
         <v>112</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>172</v>
@@ -2296,8 +2303,8 @@
       <c r="C62" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>284</v>
+      <c r="D62" s="20" t="s">
+        <v>329</v>
       </c>
       <c r="E62" t="s">
         <v>198</v>
@@ -2311,7 +2318,7 @@
         <v>111</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E63" t="s">
         <v>199</v>
@@ -2325,7 +2332,7 @@
         <v>111</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E64" t="s">
         <v>200</v>
@@ -2339,7 +2346,7 @@
         <v>111</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E65" t="s">
         <v>201</v>
@@ -2353,7 +2360,7 @@
         <v>136</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E66" t="s">
         <v>202</v>
@@ -2367,7 +2374,7 @@
         <v>136</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E67" t="s">
         <v>203</v>
@@ -2381,7 +2388,7 @@
         <v>137</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E68" t="s">
         <v>204</v>
@@ -2395,7 +2402,7 @@
         <v>111</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E69" t="s">
         <v>205</v>
@@ -2409,7 +2416,7 @@
         <v>136</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E70" t="s">
         <v>206</v>
@@ -2423,7 +2430,7 @@
         <v>138</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E71" t="s">
         <v>207</v>
@@ -2444,7 +2451,7 @@
         <v>116</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E73" t="s">
         <v>208</v>
@@ -2458,7 +2465,7 @@
         <v>117</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>209</v>
@@ -2478,7 +2485,7 @@
         <v>118</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E76" t="s">
         <v>210</v>
@@ -2492,7 +2499,7 @@
         <v>119</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>211</v>
@@ -2505,8 +2512,8 @@
       <c r="C78" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="13" t="s">
-        <v>298</v>
+      <c r="D78" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>212</v>
@@ -2521,7 +2528,7 @@
         <v>121</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>213</v>
@@ -2535,7 +2542,7 @@
         <v>121</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>214</v>
@@ -2555,7 +2562,7 @@
         <v>122</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>215</v>
@@ -2569,7 +2576,7 @@
         <v>123</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>216</v>
@@ -2583,7 +2590,7 @@
         <v>124</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>217</v>
@@ -2603,7 +2610,7 @@
         <v>125</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>218</v>
@@ -2623,7 +2630,7 @@
         <v>126</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>219</v>
@@ -2637,7 +2644,7 @@
         <v>114</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E89" t="s">
         <v>220</v>
@@ -2651,7 +2658,7 @@
         <v>127</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>221</v>
@@ -2665,7 +2672,7 @@
         <v>19</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E91" t="s">
         <v>222</v>
@@ -2685,7 +2692,7 @@
         <v>128</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>223</v>
@@ -2699,7 +2706,7 @@
         <v>129</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>224</v>
@@ -2713,7 +2720,7 @@
         <v>129</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>225</v>
@@ -2727,7 +2734,7 @@
         <v>129</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>226</v>
@@ -2741,7 +2748,7 @@
         <v>130</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>227</v>
@@ -2755,7 +2762,7 @@
         <v>130</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>228</v>
@@ -2768,8 +2775,8 @@
       <c r="C99" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D99" s="13" t="s">
-        <v>315</v>
+      <c r="D99" s="20" t="s">
+        <v>330</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>229</v>
@@ -2783,7 +2790,7 @@
         <v>132</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>230</v>
@@ -2797,7 +2804,7 @@
         <v>128</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>231</v>
@@ -2818,7 +2825,7 @@
         <v>133</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>232</v>
@@ -2838,7 +2845,7 @@
         <v>21</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>233</v>
@@ -2852,7 +2859,7 @@
         <v>114</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>235</v>
@@ -2866,7 +2873,7 @@
         <v>136</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>236</v>
@@ -2880,7 +2887,7 @@
         <v>111</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>237</v>
@@ -2894,7 +2901,7 @@
         <v>139</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>238</v>
@@ -2908,7 +2915,7 @@
         <v>140</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>239</v>
@@ -2922,7 +2929,7 @@
         <v>129</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>240</v>
@@ -2936,7 +2943,7 @@
         <v>140</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>241</v>
@@ -2964,7 +2971,7 @@
         <v>141</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>243</v>
@@ -2978,7 +2985,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>244</v>
